--- a/leecode流程.xlsx
+++ b/leecode流程.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\goland\go_project\21weeks\leecode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44796049-331E-4C72-91E9-7083B4C142AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AA6BE9-1148-4369-9559-C50A100401E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29276,6 +29276,3296 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>569</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>572</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="矩形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454B16FD-139C-64E3-F7D2-467AC104EA74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="99943920"/>
+          <a:ext cx="13266420" cy="601980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>字符串</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>573</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>587</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="矩形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5458C5-F2B9-0D61-F5FF-1385630D6A40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="100675440"/>
+          <a:ext cx="3985260" cy="2529840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>344.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反转字符串</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>编写一个函数，其作用是将输入的字符串反转过来。输入字符串以字符数组 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>char[] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的形式给出。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不要给另外的数组分配额外的空间，你必须原地修改输入数组、使用 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>O(1) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的额外空间解决这一问题。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>你可以假设数组中的所有字符都是 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ASCII </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>码表中的可打印字符。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>示例 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>["h","e","l","l","o"]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>["o","l","l","e","h"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>示例 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>["H","a","n","n","a","h"]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>["h","a","n","n","a","H"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>590</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>605</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="矩形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CE3C5D-1AE3-41C9-BB5B-0EFBDC4686C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="350520" y="103708200"/>
+          <a:ext cx="3985260" cy="2529840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>344.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反转字符串</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>编写一个函数，其作用是将输入的字符串反转过来。输入字符串以字符数组 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>char[] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的形式给出。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不要给另外的数组分配额外的空间，你必须原地修改输入数组、使用 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>O(1) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的额外空间解决这一问题。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>你可以假设数组中的所有字符都是 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ASCII </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>码表中的可打印字符。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>示例 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>["h","e","l","l","o"]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>["o","l","l","e","h"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>示例 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>["H","a","n","n","a","h"]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>["h","a","n","n","a","H"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>607</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>622</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="矩形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70C7391-01BE-4AD5-9D88-75477A512D19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="365760" y="106695240"/>
+          <a:ext cx="3985260" cy="2529840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>344.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反转字符串</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>编写一个函数，其作用是将输入的字符串反转过来。输入字符串以字符数组 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>char[] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的形式给出。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不要给另外的数组分配额外的空间，你必须原地修改输入数组、使用 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>O(1) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的额外空间解决这一问题。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>你可以假设数组中的所有字符都是 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ASCII </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>码表中的可打印字符。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>示例 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>["h","e","l","l","o"]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>["o","l","l","e","h"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>示例 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>["H","a","n","n","a","h"]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>["h","a","n","n","a","H"]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>624</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>642</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="矩形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4ECF27-212F-4F01-95C0-877EAE0C1F55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="358140" y="109712760"/>
+          <a:ext cx="3985260" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>151.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>翻转字符串里的单词</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>给定一个字符串，逐个翻转字符串中的每个单词。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>示例 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: "the sky is blue"</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: "blue is sky the"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>示例 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: "  hello world!  "</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: "world! hello"</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解释</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入字符串可以在前面或者后面包含多余的空格，但是反转后的字符不能包括。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>示例 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: "a good   example"</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>输出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: "example good a"</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>解释</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如果两个单词间有多余的空格，将反转后单词间的空格减少到只含一个。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>623</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>668</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="矩形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28344F41-A1C6-F6DA-2577-CDD2DB27835F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4671060" y="109468920"/>
+          <a:ext cx="4808220" cy="7802880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>func </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>reverseWords(s string) string {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使用双指针删除冗余的空格</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>slowIndex, fastIndex := </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>b := []byte(s)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>删除头部冗余空格</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>len(b) &gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>&amp;&amp; fastIndex &lt; len(b) &amp;&amp; b[fastIndex] == </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>' ' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      fastIndex++</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   }</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>删除单词间冗余空格</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>; fastIndex &lt; len(b); fastIndex++ {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>fastIndex-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>&amp;&amp; b[fastIndex-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>] == b[fastIndex] &amp;&amp; b[fastIndex] == </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>' ' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>continue</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      b[slowIndex] = b[fastIndex]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      slowIndex++</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   }</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>删除尾部冗余空格</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>slowIndex-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>&amp;&amp; b[slowIndex-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>] == </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>' ' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      b = b[:slowIndex-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   } </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>else </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      b = b[:slowIndex]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   }</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反转整个字符串</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>reverse(&amp;b, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>, len(b)-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>反转单个单词  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>单词开始位置，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>j</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>单词结束位置</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>i := </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>i &lt; len(b) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      j := i</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>; j &lt; len(b) &amp;&amp; b[j] != </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>' '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>; j++ {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      }</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      reverse(&amp;b, i, j-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      i = j</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      i++</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   }</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>string(b)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>func </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>reverse(b *[]byte, left, right int) {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>for </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>left &lt; right {</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      (*b)[left], (*b)[right] = (*b)[right], (*b)[left]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      left++</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      right--</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   }</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>623</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>649</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="矩形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FBBE59-BF19-499A-8D4C-354E1EDE9F13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9776460" y="109522260"/>
+          <a:ext cx="3985260" cy="4480560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>思路</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>双指针法</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、删除头部空格</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>将快指针指向头部的非空格</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>、删除单词间冗余空格</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>快指针</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>-1 = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>快指针 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>&amp;&amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>快指针</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>==</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>‘ ’ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>&amp;&amp; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>快指针不是字符串的开头  跳出这次循环 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>慢指针</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>快指针</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>慢指针</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>++</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>、删除尾部冗余空格</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>慢指针已经到最后了，如果慢指针的前一个是空格的话，将字符串尾部向前移动</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、反转字符串</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>头尾反转</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、反转单词</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用‘ ’找到单词的头部和尾部</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -29544,8 +32834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A28:W340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="K562" sqref="K562"/>
+    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
+      <selection activeCell="Q625" sqref="Q625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/leecode流程.xlsx
+++ b/leecode流程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\goland\go_project\21weeks\leecode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AA6BE9-1148-4369-9559-C50A100401E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF051C9-DCDD-4F14-AA7A-D6AC9BC63255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31149,15 +31149,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>623</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>87629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>668</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>675</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -31172,8 +31172,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4671060" y="109468920"/>
-          <a:ext cx="4808220" cy="7802880"/>
+          <a:off x="4663440" y="107148629"/>
+          <a:ext cx="4812030" cy="8894445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -31472,7 +31472,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>删除单词间冗余空格</a:t>
+            <a:t>删除单词间冗余空格   对后面的也有用</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
@@ -31658,23 +31658,56 @@
           </a:br>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>      slowIndex++</a:t>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最后一次 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>slow=12</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>   }</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>   </a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -31684,7 +31717,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>//</a:t>
+            <a:t>      //slow ++ </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
@@ -31696,7 +31729,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>删除尾部冗余空格</a:t>
+            <a:t>退出</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
@@ -31719,9 +31752,183 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>slowIndex++</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>此时</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fast= 15</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      // slow =13</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      // 12 =‘ ’   13=‘ ’</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>   </a:t>
           </a:r>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>删除尾部冗余空格</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -31822,14 +32029,58 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>]</a:t>
+            <a:t>] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>切片是左包含右不包含</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN"/>
-            <a:t>   } </a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>} </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
@@ -32834,8 +33085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A28:W340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
-      <selection activeCell="Q625" sqref="Q625"/>
+    <sheetView tabSelected="1" topLeftCell="A618" workbookViewId="0">
+      <selection activeCell="M622" sqref="M622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
